--- a/Revenuetest.xlsx
+++ b/Revenuetest.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fikir\OneDrive\Desktop\RBF\Revenue forecast Algorithm\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Month</t>
   </si>
@@ -27,40 +27,55 @@
     <t>Revenue</t>
   </si>
   <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>Jul</t>
-  </si>
-  <si>
-    <t>Aug</t>
-  </si>
-  <si>
-    <t>Sep</t>
-  </si>
-  <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>Nov</t>
-  </si>
-  <si>
-    <t>Dec</t>
+    <t xml:space="preserve">2007-01-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-02-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-03-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-04-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-05-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-06-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-07-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-08-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-09-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-10-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-11-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-12-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-01-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-02-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-03-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-04-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-05-10	</t>
   </si>
 </sst>
 </file>
@@ -79,15 +94,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -105,14 +120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -139,23 +147,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -202,20 +206,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -245,12 +249,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -289,327 +293,304 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="1">
         <v>143640</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="1">
         <v>153216</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="1">
         <v>165984</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="1">
         <v>175560</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="1">
         <v>181944</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="1">
         <v>191520</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="1">
         <v>201096</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="1">
         <v>217056</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="1">
         <v>236207.99999999997</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="1">
         <v>255360</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="1">
         <v>280896</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="1">
         <v>306432</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="5">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
         <v>319200</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
         <v>351120</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="5">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
         <v>383040</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="5">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
         <v>414960</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="5">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
         <v>446879.99999999994</v>
       </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Revenuetest.xlsx
+++ b/Revenuetest.xlsx
@@ -27,55 +27,55 @@
     <t>Revenue</t>
   </si>
   <si>
-    <t xml:space="preserve">2007-01-10	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-02-10	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-03-10	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-04-10	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-05-10	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-06-10	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-07-10	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-08-10	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-09-10	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-10-10	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-11-10	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-12-10	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-01-10	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-02-10	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-03-10	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-04-10	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-05-10	</t>
+    <t xml:space="preserve">2023-01-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-02-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-07-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-08-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-10	</t>
   </si>
 </sst>
 </file>
@@ -100,9 +100,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -151,8 +152,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,14 +435,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -455,7 +457,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>143640</v>
@@ -463,7 +465,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>153216</v>
@@ -471,7 +473,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>165984</v>
@@ -479,7 +481,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>175560</v>
@@ -487,7 +489,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>181944</v>
@@ -495,7 +497,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>191520</v>
@@ -503,7 +505,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1">
         <v>201096</v>
@@ -511,7 +513,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1">
         <v>217056</v>
@@ -519,7 +521,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1">
         <v>236207.99999999997</v>
@@ -527,7 +529,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1">
         <v>255360</v>
@@ -535,7 +537,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1">
         <v>280896</v>
@@ -588,9 +590,6 @@
       <c r="B18" s="1">
         <v>446879.99999999994</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
